--- a/data/sockeye.xlsx
+++ b/data/sockeye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/mark_sorel_dfw_wa_gov/Documents/Documents/forecasting/spring_summer_TAC_forecasts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{9FA7DB89-81E1-433D-AF0F-2CA24DF0752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D2C629D-1157-48E6-83BC-1110ACE7C156}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{9FA7DB89-81E1-433D-AF0F-2CA24DF0752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47BEE020-E4DF-4924-875B-85FB8A6ECF3D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4739745A-B4A9-4FF7-95B2-258B15A1424D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4739745A-B4A9-4FF7-95B2-258B15A1424D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3198,10 +3198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8112BA-219B-4442-8A50-EB56AC2D58AC}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6232,6 +6232,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="83" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J83">
+        <f>CORREL(J2:J76,K2:K76)</f>
+        <v>0.72261450397384197</v>
+      </c>
+      <c r="K83">
+        <f>CORREL(K2:K76,L2:L76)</f>
+        <v>0.40791560390866155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6243,7 +6253,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7499,13 +7509,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55F1CF-90D4-48B1-A5B4-8540D4D929D9}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51:J55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -8276,15 +8286,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -8295,6 +8296,15 @@
     <TaxCatchAll xmlns="25bf28c8-6ae6-42aa-a4b2-d83c9f61aeaa" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8318,14 +8328,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56787FEF-17A9-4939-8964-CD861F847BC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDE3CCAE-00A9-4F2C-8A6E-9CA9B4EAEA05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8335,4 +8337,12 @@
     <ds:schemaRef ds:uri="25bf28c8-6ae6-42aa-a4b2-d83c9f61aeaa"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56787FEF-17A9-4939-8964-CD861F847BC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>